--- a/biology/Médecine/Léon_Poincaré/Léon_Poincaré.xlsx
+++ b/biology/Médecine/Léon_Poincaré/Léon_Poincaré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Poincar%C3%A9</t>
+          <t>Léon_Poincaré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Léon Poincaré est un médecin et anatomiste français[1], né le 16 août 1828 à Nancy (Meurthe-et-Moselle) et mort le 15 septembre 1892 dans la même ville[2],[3]. Il est le père du mathématicien Henri Poincaré, le beau-père du philosophe Émile Boutroux et l'oncle du président de la République Raymond Poincaré.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Léon Poincaré est un médecin et anatomiste français, né le 16 août 1828 à Nancy (Meurthe-et-Moselle) et mort le 15 septembre 1892 dans la même ville,. Il est le père du mathématicien Henri Poincaré, le beau-père du philosophe Émile Boutroux et l'oncle du président de la République Raymond Poincaré.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Poincar%C3%A9</t>
+          <t>Léon_Poincaré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Poincaré était médecin, anatomiste et physiologiste, professeur titulaire de la chaire d'hygiène à la Faculté de médecine de Nancy, après avoir soutenu une thèse de médecine sur l'ophtalmie purulente des nouveau-nés. 
 Il était président de l'Académie de Stanislas et membre correspondant de l'Académie nationale de médecine. Il a été élu correspondant pour la division d'anatomie et de physiologie le 26 juillet 1887. 
-Il a publié notamment un traité d'hygiène industrielle à l'usage des médecins et des membres des conseils d'hygiène en 1886[4],[5].
+Il a publié notamment un traité d'hygiène industrielle à l'usage des médecins et des membres des conseils d'hygiène en 1886,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Poincar%C3%A9</t>
+          <t>Léon_Poincaré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Poincaré était le fils de Jules Jacques Nicolas Poincaré et de Catherine Rolin. Il s'est marié avec Eugénie Launois. 
-Ils ont eu deux enfants: le mathématicien Henri Poincaré[6] et sa sœur, Aline Boutroux, née Poincaré, épouse du philosophe Émile Boutroux[7].
+Ils ont eu deux enfants: le mathématicien Henri Poincaré et sa sœur, Aline Boutroux, née Poincaré, épouse du philosophe Émile Boutroux.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Poincar%C3%A9</t>
+          <t>Léon_Poincaré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur.</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Poincar%C3%A9</t>
+          <t>Léon_Poincaré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Recherches sur l'anatomie pathologique et la nature de la paralysie générale, avec Henry Bonnet[8], Paris, E. Martinet, 1869.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Recherches sur l'anatomie pathologique et la nature de la paralysie générale, avec Henry Bonnet, Paris, E. Martinet, 1869.
 Tumeur congénitale de la région sacro-périnéale, Nancy, Vve Raybois, 1869.
 Le système nerveux central au point de vue normal et pathologique, leçons de physiologie professées à Nancy, Paris, J.B. Baillière, 1877.
 Le système nerveux périphérique au point de vue normal et pathologique, Paris, Berger-Levrault, 1876.
